--- a/Consumptions/Consumptions.xlsx
+++ b/Consumptions/Consumptions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28422"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wdewp\Consumptions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{91994268-7BD5-4276-9586-EB50FE79FBAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47BD305E-91F3-43A7-8B3E-95E6A18A9D2A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{50D72044-8FDD-491E-95EA-515378B3716E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3DBED247-EC9A-40F8-8CFC-03EB210BD3E5}"/>
   </bookViews>
@@ -147,7 +147,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -211,11 +211,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -287,6 +311,24 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -624,11 +666,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7073F2A-7EDA-4C96-AFE1-D3B1543C3827}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:V325"/>
+  <dimension ref="A1:V341"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="V2" sqref="V2"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="L334" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="A326" sqref="A326:V341"/>
       <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
     </sheetView>
@@ -22693,71 +22735,1159 @@
       </c>
     </row>
     <row r="325" spans="1:22">
-      <c r="A325" s="3">
+      <c r="A325" s="26">
         <v>45635</v>
       </c>
-      <c r="B325" s="18">
+      <c r="B325" s="27">
         <v>145</v>
       </c>
-      <c r="C325" s="18">
+      <c r="C325" s="27">
         <v>163</v>
       </c>
-      <c r="D325" s="18">
+      <c r="D325" s="27">
         <v>28</v>
       </c>
-      <c r="E325" s="18">
+      <c r="E325" s="27">
         <v>30</v>
       </c>
-      <c r="F325" s="18">
-        <v>9</v>
-      </c>
-      <c r="G325" s="18">
+      <c r="F325" s="27">
+        <v>9</v>
+      </c>
+      <c r="G325" s="27">
         <v>10</v>
       </c>
-      <c r="H325" s="18">
+      <c r="H325" s="27">
         <v>10</v>
       </c>
-      <c r="I325" s="18">
+      <c r="I325" s="27">
         <v>10</v>
       </c>
-      <c r="J325" s="18">
-        <v>4</v>
-      </c>
-      <c r="K325" s="18">
-        <v>4</v>
-      </c>
-      <c r="L325" s="18">
-        <v>2</v>
-      </c>
-      <c r="M325" s="18">
-        <v>2</v>
-      </c>
-      <c r="N325" s="19">
+      <c r="J325" s="27">
+        <v>4</v>
+      </c>
+      <c r="K325" s="27">
+        <v>4</v>
+      </c>
+      <c r="L325" s="27">
+        <v>2</v>
+      </c>
+      <c r="M325" s="27">
+        <v>2</v>
+      </c>
+      <c r="N325" s="28">
         <v>7</v>
       </c>
-      <c r="O325" s="18">
-        <v>6</v>
-      </c>
-      <c r="P325" s="18">
-        <v>3</v>
-      </c>
-      <c r="Q325" s="18">
-        <v>3</v>
-      </c>
-      <c r="R325" s="18">
+      <c r="O325" s="27">
+        <v>6</v>
+      </c>
+      <c r="P325" s="27">
+        <v>3</v>
+      </c>
+      <c r="Q325" s="27">
+        <v>3</v>
+      </c>
+      <c r="R325" s="27">
         <v>7</v>
       </c>
-      <c r="S325" s="19">
+      <c r="S325" s="28">
         <v>7</v>
       </c>
-      <c r="T325" s="21">
+      <c r="T325" s="29">
         <v>24659.792000000001</v>
       </c>
-      <c r="U325" s="22">
+      <c r="U325" s="30">
         <v>65016</v>
       </c>
-      <c r="V325" s="21">
+      <c r="V325" s="29">
         <v>902</v>
+      </c>
+    </row>
+    <row r="326" spans="1:22">
+      <c r="A326" s="25">
+        <v>45636</v>
+      </c>
+      <c r="B326" s="22">
+        <v>174</v>
+      </c>
+      <c r="C326" s="22">
+        <v>120</v>
+      </c>
+      <c r="D326" s="22">
+        <v>28</v>
+      </c>
+      <c r="E326" s="22">
+        <v>29</v>
+      </c>
+      <c r="F326" s="22">
+        <v>9</v>
+      </c>
+      <c r="G326" s="22">
+        <v>9</v>
+      </c>
+      <c r="H326" s="22">
+        <v>9</v>
+      </c>
+      <c r="I326" s="22">
+        <v>11</v>
+      </c>
+      <c r="J326" s="22">
+        <v>3</v>
+      </c>
+      <c r="K326" s="22">
+        <v>4</v>
+      </c>
+      <c r="L326" s="22">
+        <v>3</v>
+      </c>
+      <c r="M326" s="22">
+        <v>2</v>
+      </c>
+      <c r="N326" s="22">
+        <v>7</v>
+      </c>
+      <c r="O326" s="22">
+        <v>6</v>
+      </c>
+      <c r="P326" s="22">
+        <v>3</v>
+      </c>
+      <c r="Q326" s="22">
+        <v>3</v>
+      </c>
+      <c r="R326" s="22">
+        <v>7</v>
+      </c>
+      <c r="S326" s="22">
+        <v>7</v>
+      </c>
+      <c r="T326" s="21">
+        <v>28816.724999999999</v>
+      </c>
+      <c r="U326" s="22">
+        <v>71355</v>
+      </c>
+      <c r="V326" s="21">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="327" spans="1:22">
+      <c r="A327" s="25">
+        <v>45637</v>
+      </c>
+      <c r="B327" s="22">
+        <v>159</v>
+      </c>
+      <c r="C327" s="22">
+        <v>132</v>
+      </c>
+      <c r="D327" s="22">
+        <v>29</v>
+      </c>
+      <c r="E327" s="22">
+        <v>29</v>
+      </c>
+      <c r="F327" s="22">
+        <v>10</v>
+      </c>
+      <c r="G327" s="22">
+        <v>10</v>
+      </c>
+      <c r="H327" s="22">
+        <v>10</v>
+      </c>
+      <c r="I327" s="22">
+        <v>11</v>
+      </c>
+      <c r="J327" s="22">
+        <v>3</v>
+      </c>
+      <c r="K327" s="22">
+        <v>4</v>
+      </c>
+      <c r="L327" s="22">
+        <v>2</v>
+      </c>
+      <c r="M327" s="22">
+        <v>2</v>
+      </c>
+      <c r="N327" s="22">
+        <v>7</v>
+      </c>
+      <c r="O327" s="22">
+        <v>6</v>
+      </c>
+      <c r="P327" s="22">
+        <v>3</v>
+      </c>
+      <c r="Q327" s="22">
+        <v>3</v>
+      </c>
+      <c r="R327" s="22">
+        <v>7</v>
+      </c>
+      <c r="S327" s="22">
+        <v>7</v>
+      </c>
+      <c r="T327" s="21">
+        <v>27490.300999999999</v>
+      </c>
+      <c r="U327" s="22">
+        <v>67406</v>
+      </c>
+      <c r="V327" s="21">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="328" spans="1:22">
+      <c r="A328" s="25">
+        <v>45638</v>
+      </c>
+      <c r="B328" s="22">
+        <v>164</v>
+      </c>
+      <c r="C328" s="22">
+        <v>120</v>
+      </c>
+      <c r="D328" s="22">
+        <v>28</v>
+      </c>
+      <c r="E328" s="22">
+        <v>29</v>
+      </c>
+      <c r="F328" s="22">
+        <v>10</v>
+      </c>
+      <c r="G328" s="22">
+        <v>10</v>
+      </c>
+      <c r="H328" s="22">
+        <v>9</v>
+      </c>
+      <c r="I328" s="22">
+        <v>11</v>
+      </c>
+      <c r="J328" s="22">
+        <v>2</v>
+      </c>
+      <c r="K328" s="22">
+        <v>3</v>
+      </c>
+      <c r="L328" s="22">
+        <v>3</v>
+      </c>
+      <c r="M328" s="22">
+        <v>2</v>
+      </c>
+      <c r="N328" s="22">
+        <v>6</v>
+      </c>
+      <c r="O328" s="22">
+        <v>7</v>
+      </c>
+      <c r="P328" s="22">
+        <v>3</v>
+      </c>
+      <c r="Q328" s="22">
+        <v>3</v>
+      </c>
+      <c r="R328" s="22">
+        <v>7</v>
+      </c>
+      <c r="S328" s="22">
+        <v>7</v>
+      </c>
+      <c r="T328" s="21">
+        <v>27406.433000000001</v>
+      </c>
+      <c r="U328" s="22">
+        <v>62261</v>
+      </c>
+      <c r="V328" s="21">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="329" spans="1:22">
+      <c r="A329" s="25">
+        <v>45639</v>
+      </c>
+      <c r="B329" s="22">
+        <v>164</v>
+      </c>
+      <c r="C329" s="22">
+        <v>120</v>
+      </c>
+      <c r="D329" s="22">
+        <v>28</v>
+      </c>
+      <c r="E329" s="22">
+        <v>29</v>
+      </c>
+      <c r="F329" s="22">
+        <v>10</v>
+      </c>
+      <c r="G329" s="22">
+        <v>10</v>
+      </c>
+      <c r="H329" s="22">
+        <v>9</v>
+      </c>
+      <c r="I329" s="22">
+        <v>9</v>
+      </c>
+      <c r="J329" s="22">
+        <v>2</v>
+      </c>
+      <c r="K329" s="22">
+        <v>3</v>
+      </c>
+      <c r="L329" s="22">
+        <v>2</v>
+      </c>
+      <c r="M329" s="22">
+        <v>1</v>
+      </c>
+      <c r="N329" s="22">
+        <v>7</v>
+      </c>
+      <c r="O329" s="22">
+        <v>5</v>
+      </c>
+      <c r="P329" s="22">
+        <v>3</v>
+      </c>
+      <c r="Q329" s="22">
+        <v>3</v>
+      </c>
+      <c r="R329" s="22">
+        <v>7</v>
+      </c>
+      <c r="S329" s="22">
+        <v>7</v>
+      </c>
+      <c r="T329" s="21">
+        <v>26704.809000000001</v>
+      </c>
+      <c r="U329" s="22">
+        <v>66176</v>
+      </c>
+      <c r="V329" s="21">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="330" spans="1:22">
+      <c r="A330" s="25">
+        <v>45640</v>
+      </c>
+      <c r="B330" s="22">
+        <v>138</v>
+      </c>
+      <c r="C330" s="22">
+        <v>153</v>
+      </c>
+      <c r="D330" s="22">
+        <v>30</v>
+      </c>
+      <c r="E330" s="22">
+        <v>29</v>
+      </c>
+      <c r="F330" s="22">
+        <v>10</v>
+      </c>
+      <c r="G330" s="22">
+        <v>10</v>
+      </c>
+      <c r="H330" s="22">
+        <v>10</v>
+      </c>
+      <c r="I330" s="22">
+        <v>8</v>
+      </c>
+      <c r="J330" s="22">
+        <v>4</v>
+      </c>
+      <c r="K330" s="22">
+        <v>2</v>
+      </c>
+      <c r="L330" s="22">
+        <v>1</v>
+      </c>
+      <c r="M330" s="22">
+        <v>1</v>
+      </c>
+      <c r="N330" s="22">
+        <v>6</v>
+      </c>
+      <c r="O330" s="22">
+        <v>6</v>
+      </c>
+      <c r="P330" s="22">
+        <v>3</v>
+      </c>
+      <c r="Q330" s="22">
+        <v>3</v>
+      </c>
+      <c r="R330" s="22">
+        <v>7</v>
+      </c>
+      <c r="S330" s="22">
+        <v>7</v>
+      </c>
+      <c r="T330" s="21">
+        <v>27243.638999999999</v>
+      </c>
+      <c r="U330" s="22">
+        <v>68533</v>
+      </c>
+      <c r="V330" s="21">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="331" spans="1:22">
+      <c r="A331" s="25">
+        <v>45641</v>
+      </c>
+      <c r="B331" s="22">
+        <v>125</v>
+      </c>
+      <c r="C331" s="22">
+        <v>138</v>
+      </c>
+      <c r="D331" s="22">
+        <v>29</v>
+      </c>
+      <c r="E331" s="22">
+        <v>29</v>
+      </c>
+      <c r="F331" s="22">
+        <v>10</v>
+      </c>
+      <c r="G331" s="22">
+        <v>10</v>
+      </c>
+      <c r="H331" s="22">
+        <v>11</v>
+      </c>
+      <c r="I331" s="22">
+        <v>11</v>
+      </c>
+      <c r="J331" s="22">
+        <v>4</v>
+      </c>
+      <c r="K331" s="22">
+        <v>4</v>
+      </c>
+      <c r="L331" s="22">
+        <v>2</v>
+      </c>
+      <c r="M331" s="22">
+        <v>2</v>
+      </c>
+      <c r="N331" s="22">
+        <v>6</v>
+      </c>
+      <c r="O331" s="22">
+        <v>6</v>
+      </c>
+      <c r="P331" s="22">
+        <v>3</v>
+      </c>
+      <c r="Q331" s="22">
+        <v>3</v>
+      </c>
+      <c r="R331" s="22">
+        <v>7</v>
+      </c>
+      <c r="S331" s="22">
+        <v>7</v>
+      </c>
+      <c r="T331" s="21">
+        <v>18609.476999999999</v>
+      </c>
+      <c r="U331" s="22">
+        <v>66220</v>
+      </c>
+      <c r="V331" s="21">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="332" spans="1:22">
+      <c r="A332" s="25">
+        <v>45642</v>
+      </c>
+      <c r="B332" s="22">
+        <v>132</v>
+      </c>
+      <c r="C332" s="22">
+        <v>127</v>
+      </c>
+      <c r="D332" s="22">
+        <v>30</v>
+      </c>
+      <c r="E332" s="22">
+        <v>30</v>
+      </c>
+      <c r="F332" s="22">
+        <v>10</v>
+      </c>
+      <c r="G332" s="22">
+        <v>10</v>
+      </c>
+      <c r="H332" s="22">
+        <v>11</v>
+      </c>
+      <c r="I332" s="22">
+        <v>11</v>
+      </c>
+      <c r="J332" s="22">
+        <v>4</v>
+      </c>
+      <c r="K332" s="22">
+        <v>4</v>
+      </c>
+      <c r="L332" s="22">
+        <v>2</v>
+      </c>
+      <c r="M332" s="22">
+        <v>2</v>
+      </c>
+      <c r="N332" s="22">
+        <v>7</v>
+      </c>
+      <c r="O332" s="22">
+        <v>6</v>
+      </c>
+      <c r="P332" s="22">
+        <v>3</v>
+      </c>
+      <c r="Q332" s="22">
+        <v>3</v>
+      </c>
+      <c r="R332" s="22">
+        <v>7</v>
+      </c>
+      <c r="S332" s="22">
+        <v>7</v>
+      </c>
+      <c r="T332" s="21">
+        <v>26980.125</v>
+      </c>
+      <c r="U332" s="22">
+        <v>66943</v>
+      </c>
+      <c r="V332" s="21">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="333" spans="1:22">
+      <c r="A333" s="25">
+        <v>45643</v>
+      </c>
+      <c r="B333" s="22">
+        <v>121</v>
+      </c>
+      <c r="C333" s="22">
+        <v>134</v>
+      </c>
+      <c r="D333" s="22">
+        <v>29</v>
+      </c>
+      <c r="E333" s="22">
+        <v>30</v>
+      </c>
+      <c r="F333" s="22">
+        <v>9</v>
+      </c>
+      <c r="G333" s="22">
+        <v>10</v>
+      </c>
+      <c r="H333" s="22">
+        <v>10</v>
+      </c>
+      <c r="I333" s="22">
+        <v>11</v>
+      </c>
+      <c r="J333" s="22">
+        <v>4</v>
+      </c>
+      <c r="K333" s="22">
+        <v>4</v>
+      </c>
+      <c r="L333" s="22">
+        <v>2</v>
+      </c>
+      <c r="M333" s="22">
+        <v>2</v>
+      </c>
+      <c r="N333" s="22">
+        <v>7</v>
+      </c>
+      <c r="O333" s="22">
+        <v>6</v>
+      </c>
+      <c r="P333" s="22">
+        <v>3</v>
+      </c>
+      <c r="Q333" s="22">
+        <v>3</v>
+      </c>
+      <c r="R333" s="22">
+        <v>7</v>
+      </c>
+      <c r="S333" s="22">
+        <v>7</v>
+      </c>
+      <c r="T333" s="21">
+        <v>27108.398000000001</v>
+      </c>
+      <c r="U333" s="22">
+        <v>70578</v>
+      </c>
+      <c r="V333" s="21">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="334" spans="1:22">
+      <c r="A334" s="25">
+        <v>45644</v>
+      </c>
+      <c r="B334" s="22">
+        <v>157</v>
+      </c>
+      <c r="C334" s="22">
+        <v>114</v>
+      </c>
+      <c r="D334" s="22">
+        <v>29</v>
+      </c>
+      <c r="E334" s="22">
+        <v>30</v>
+      </c>
+      <c r="F334" s="22">
+        <v>10</v>
+      </c>
+      <c r="G334" s="22">
+        <v>9</v>
+      </c>
+      <c r="H334" s="22">
+        <v>9</v>
+      </c>
+      <c r="I334" s="22">
+        <v>10</v>
+      </c>
+      <c r="J334" s="22">
+        <v>3</v>
+      </c>
+      <c r="K334" s="22">
+        <v>4</v>
+      </c>
+      <c r="L334" s="22">
+        <v>3</v>
+      </c>
+      <c r="M334" s="22">
+        <v>2</v>
+      </c>
+      <c r="N334" s="22">
+        <v>7</v>
+      </c>
+      <c r="O334" s="22">
+        <v>6</v>
+      </c>
+      <c r="P334" s="22">
+        <v>3</v>
+      </c>
+      <c r="Q334" s="22">
+        <v>3</v>
+      </c>
+      <c r="R334" s="22">
+        <v>7</v>
+      </c>
+      <c r="S334" s="22">
+        <v>7</v>
+      </c>
+      <c r="T334" s="21">
+        <v>26838.02</v>
+      </c>
+      <c r="U334" s="22">
+        <v>63455</v>
+      </c>
+      <c r="V334" s="21">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="335" spans="1:22">
+      <c r="A335" s="25">
+        <v>45645</v>
+      </c>
+      <c r="B335" s="22">
+        <v>141</v>
+      </c>
+      <c r="C335" s="22">
+        <v>92</v>
+      </c>
+      <c r="D335" s="22">
+        <v>29</v>
+      </c>
+      <c r="E335" s="22">
+        <v>30</v>
+      </c>
+      <c r="F335" s="22">
+        <v>10</v>
+      </c>
+      <c r="G335" s="22">
+        <v>9</v>
+      </c>
+      <c r="H335" s="22">
+        <v>9</v>
+      </c>
+      <c r="I335" s="22">
+        <v>11</v>
+      </c>
+      <c r="J335" s="22">
+        <v>3</v>
+      </c>
+      <c r="K335" s="22">
+        <v>4</v>
+      </c>
+      <c r="L335" s="22">
+        <v>2</v>
+      </c>
+      <c r="M335" s="22">
+        <v>2</v>
+      </c>
+      <c r="N335" s="22">
+        <v>7</v>
+      </c>
+      <c r="O335" s="22">
+        <v>6</v>
+      </c>
+      <c r="P335" s="22">
+        <v>3</v>
+      </c>
+      <c r="Q335" s="22">
+        <v>3</v>
+      </c>
+      <c r="R335" s="22">
+        <v>7</v>
+      </c>
+      <c r="S335" s="22">
+        <v>7</v>
+      </c>
+      <c r="T335" s="21">
+        <v>26926.877</v>
+      </c>
+      <c r="U335" s="22">
+        <v>64048</v>
+      </c>
+      <c r="V335" s="21">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="336" spans="1:22">
+      <c r="A336" s="25">
+        <v>45646</v>
+      </c>
+      <c r="B336" s="22">
+        <v>103</v>
+      </c>
+      <c r="C336" s="22">
+        <v>133</v>
+      </c>
+      <c r="D336" s="22">
+        <v>30</v>
+      </c>
+      <c r="E336" s="22">
+        <v>29</v>
+      </c>
+      <c r="F336" s="22">
+        <v>10</v>
+      </c>
+      <c r="G336" s="22">
+        <v>9</v>
+      </c>
+      <c r="H336" s="22">
+        <v>11</v>
+      </c>
+      <c r="I336" s="22">
+        <v>9</v>
+      </c>
+      <c r="J336" s="22">
+        <v>4</v>
+      </c>
+      <c r="K336" s="22">
+        <v>2</v>
+      </c>
+      <c r="L336" s="22">
+        <v>3</v>
+      </c>
+      <c r="M336" s="22">
+        <v>2</v>
+      </c>
+      <c r="N336" s="22">
+        <v>7</v>
+      </c>
+      <c r="O336" s="22">
+        <v>6</v>
+      </c>
+      <c r="P336" s="22">
+        <v>3</v>
+      </c>
+      <c r="Q336" s="22">
+        <v>3</v>
+      </c>
+      <c r="R336" s="22">
+        <v>7</v>
+      </c>
+      <c r="S336" s="22">
+        <v>7</v>
+      </c>
+      <c r="T336" s="21">
+        <v>25693.881000000001</v>
+      </c>
+      <c r="U336" s="22">
+        <v>61292</v>
+      </c>
+      <c r="V336" s="21">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="337" spans="1:22">
+      <c r="A337" s="25">
+        <v>45647</v>
+      </c>
+      <c r="B337" s="22">
+        <v>124</v>
+      </c>
+      <c r="C337" s="22">
+        <v>131</v>
+      </c>
+      <c r="D337" s="22">
+        <v>30</v>
+      </c>
+      <c r="E337" s="22">
+        <v>29</v>
+      </c>
+      <c r="F337" s="22">
+        <v>10</v>
+      </c>
+      <c r="G337" s="22">
+        <v>10</v>
+      </c>
+      <c r="H337" s="22">
+        <v>11</v>
+      </c>
+      <c r="I337" s="22">
+        <v>9</v>
+      </c>
+      <c r="J337" s="22">
+        <v>4</v>
+      </c>
+      <c r="K337" s="22">
+        <v>3</v>
+      </c>
+      <c r="L337" s="22">
+        <v>2</v>
+      </c>
+      <c r="M337" s="22">
+        <v>2</v>
+      </c>
+      <c r="N337" s="22">
+        <v>6</v>
+      </c>
+      <c r="O337" s="22">
+        <v>6</v>
+      </c>
+      <c r="P337" s="22">
+        <v>3</v>
+      </c>
+      <c r="Q337" s="22">
+        <v>3</v>
+      </c>
+      <c r="R337" s="22">
+        <v>7</v>
+      </c>
+      <c r="S337" s="22">
+        <v>7</v>
+      </c>
+      <c r="T337" s="21">
+        <v>26228.85</v>
+      </c>
+      <c r="U337" s="22">
+        <v>75908</v>
+      </c>
+      <c r="V337" s="21">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="338" spans="1:22">
+      <c r="A338" s="25">
+        <v>45648</v>
+      </c>
+      <c r="B338" s="22">
+        <v>95</v>
+      </c>
+      <c r="C338" s="22">
+        <v>95</v>
+      </c>
+      <c r="D338" s="22">
+        <v>29</v>
+      </c>
+      <c r="E338" s="22">
+        <v>29</v>
+      </c>
+      <c r="F338" s="22">
+        <v>10</v>
+      </c>
+      <c r="G338" s="22">
+        <v>9</v>
+      </c>
+      <c r="H338" s="22">
+        <v>10</v>
+      </c>
+      <c r="I338" s="22">
+        <v>10</v>
+      </c>
+      <c r="J338" s="22">
+        <v>3</v>
+      </c>
+      <c r="K338" s="22">
+        <v>3</v>
+      </c>
+      <c r="L338" s="22">
+        <v>2</v>
+      </c>
+      <c r="M338" s="22">
+        <v>2</v>
+      </c>
+      <c r="N338" s="22">
+        <v>7</v>
+      </c>
+      <c r="O338" s="22">
+        <v>6</v>
+      </c>
+      <c r="P338" s="22">
+        <v>3</v>
+      </c>
+      <c r="Q338" s="22">
+        <v>3</v>
+      </c>
+      <c r="R338" s="22">
+        <v>7</v>
+      </c>
+      <c r="S338" s="22">
+        <v>7</v>
+      </c>
+      <c r="T338" s="21">
+        <v>26189.144</v>
+      </c>
+      <c r="U338" s="22">
+        <v>76221</v>
+      </c>
+      <c r="V338" s="21">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="339" spans="1:22">
+      <c r="A339" s="25">
+        <v>45649</v>
+      </c>
+      <c r="B339" s="22">
+        <v>59</v>
+      </c>
+      <c r="C339" s="22">
+        <v>102</v>
+      </c>
+      <c r="D339" s="22">
+        <v>30</v>
+      </c>
+      <c r="E339" s="22">
+        <v>30</v>
+      </c>
+      <c r="F339" s="22">
+        <v>10</v>
+      </c>
+      <c r="G339" s="22">
+        <v>10</v>
+      </c>
+      <c r="H339" s="22">
+        <v>11</v>
+      </c>
+      <c r="I339" s="22">
+        <v>11</v>
+      </c>
+      <c r="J339" s="22">
+        <v>4</v>
+      </c>
+      <c r="K339" s="22">
+        <v>4</v>
+      </c>
+      <c r="L339" s="22">
+        <v>2</v>
+      </c>
+      <c r="M339" s="22">
+        <v>1</v>
+      </c>
+      <c r="N339" s="22">
+        <v>7</v>
+      </c>
+      <c r="O339" s="22">
+        <v>6</v>
+      </c>
+      <c r="P339" s="22">
+        <v>3</v>
+      </c>
+      <c r="Q339" s="22">
+        <v>3</v>
+      </c>
+      <c r="R339" s="22">
+        <v>7</v>
+      </c>
+      <c r="S339" s="22">
+        <v>7</v>
+      </c>
+      <c r="T339" s="21">
+        <v>25788.923999999999</v>
+      </c>
+      <c r="U339" s="22">
+        <v>66931</v>
+      </c>
+      <c r="V339" s="21">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="340" spans="1:22">
+      <c r="A340" s="25">
+        <v>45650</v>
+      </c>
+      <c r="B340" s="22">
+        <v>88</v>
+      </c>
+      <c r="C340" s="22">
+        <v>84</v>
+      </c>
+      <c r="D340" s="22">
+        <v>29</v>
+      </c>
+      <c r="E340" s="22">
+        <v>30</v>
+      </c>
+      <c r="F340" s="22">
+        <v>10</v>
+      </c>
+      <c r="G340" s="22">
+        <v>10</v>
+      </c>
+      <c r="H340" s="22">
+        <v>11</v>
+      </c>
+      <c r="I340" s="22">
+        <v>11</v>
+      </c>
+      <c r="J340" s="22">
+        <v>3</v>
+      </c>
+      <c r="K340" s="22">
+        <v>4</v>
+      </c>
+      <c r="L340" s="22">
+        <v>2</v>
+      </c>
+      <c r="M340" s="22">
+        <v>1</v>
+      </c>
+      <c r="N340" s="22">
+        <v>7</v>
+      </c>
+      <c r="O340" s="22">
+        <v>5</v>
+      </c>
+      <c r="P340" s="22">
+        <v>3</v>
+      </c>
+      <c r="Q340" s="22">
+        <v>3</v>
+      </c>
+      <c r="R340" s="22">
+        <v>7</v>
+      </c>
+      <c r="S340" s="22">
+        <v>7</v>
+      </c>
+      <c r="T340" s="21">
+        <v>24762.489469092303</v>
+      </c>
+      <c r="U340" s="22">
+        <v>66207</v>
+      </c>
+      <c r="V340" s="21">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="341" spans="1:22">
+      <c r="A341" s="25">
+        <v>45651</v>
+      </c>
+      <c r="B341" s="22">
+        <v>110</v>
+      </c>
+      <c r="C341" s="22">
+        <v>57</v>
+      </c>
+      <c r="D341" s="22">
+        <v>29</v>
+      </c>
+      <c r="E341" s="22">
+        <v>30</v>
+      </c>
+      <c r="F341" s="22">
+        <v>10</v>
+      </c>
+      <c r="G341" s="22">
+        <v>10</v>
+      </c>
+      <c r="H341" s="22">
+        <v>8</v>
+      </c>
+      <c r="I341" s="22">
+        <v>11</v>
+      </c>
+      <c r="J341" s="22">
+        <v>2</v>
+      </c>
+      <c r="K341" s="22">
+        <v>4</v>
+      </c>
+      <c r="L341" s="22">
+        <v>1</v>
+      </c>
+      <c r="M341" s="22">
+        <v>1</v>
+      </c>
+      <c r="N341" s="22">
+        <v>6</v>
+      </c>
+      <c r="O341" s="22">
+        <v>6</v>
+      </c>
+      <c r="P341" s="22">
+        <v>3</v>
+      </c>
+      <c r="Q341" s="22">
+        <v>3</v>
+      </c>
+      <c r="R341" s="22">
+        <v>7</v>
+      </c>
+      <c r="S341" s="22">
+        <v>7</v>
+      </c>
+      <c r="T341" s="21">
+        <v>24270.564091858036</v>
+      </c>
+      <c r="U341" s="22">
+        <v>64291</v>
+      </c>
+      <c r="V341" s="21">
+        <v>980</v>
       </c>
     </row>
   </sheetData>
